--- a/sirius_cpi/ИТО_processed_data.xlsx
+++ b/sirius_cpi/ИТО_processed_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,103 +458,103 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Как вы оцениваете метрологическое обеспечение оборудования (поверка, аттестация)?     [Качество]</t>
+          <t>Как вы оцениваете информационную систему подачи заявок ServiceDesk "Сервис лабораторного оборудования" для обращений в инженерно-технический отдел?</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>112.5</v>
       </c>
       <c r="C2" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>7.5</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Как вы оцениваете метрологическое обеспечение оборудования (поверка, аттестация)?     [Сроки]</t>
+          <t>Как вы оцениваете метрологическое обеспечение оборудования (поверка, аттестация)?     [Качество]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
         <v>7.5</v>
       </c>
       <c r="D3" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Как вы оцениваете проведение планового технического обслуживания оборудования?     [Качество]</t>
+          <t>Как вы оцениваете метрологическое обеспечение оборудования (поверка, аттестация)?     [Сроки]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C4" t="n">
         <v>7.5</v>
       </c>
       <c r="D4" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Как вы оцениваете проведение планового технического обслуживания оборудования?     [Сроки]</t>
+          <t>Как вы оцениваете проведение планового технического обслуживания оборудования?     [Качество]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87.5</v>
+        <v>100</v>
       </c>
       <c r="C5" t="n">
         <v>7.5</v>
       </c>
       <c r="D5" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Как вы оцениваете проведение пуско-наладочных работ?     [Качество]</t>
+          <t>Как вы оцениваете проведение планового технического обслуживания оборудования?     [Сроки]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82.5</v>
+        <v>87.5</v>
       </c>
       <c r="C6" t="n">
         <v>7.5</v>
       </c>
       <c r="D6" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Как вы оцениваете проведение пуско-наладочных работ?     [Сроки]</t>
+          <t>Как вы оцениваете проведение пуско-наладочных работ?     [Качество]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>125</v>
+        <v>82.5</v>
       </c>
       <c r="C7" t="n">
         <v>7.5</v>
       </c>
       <c r="D7" t="n">
-        <v>9.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Как вы оцениваете проведение ремонта оборудования?     [Качество]</t>
+          <t>Как вы оцениваете проведение пуско-наладочных работ?     [Сроки]</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -570,7 +570,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Как вы оцениваете проведение ремонта оборудования?     [Сроки]</t>
+          <t>Как вы оцениваете проведение ремонта оборудования?     [Качество]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -586,61 +586,77 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Как вы оцениваете снабжение медицинскими газами и криожидкостями?  [Качество]</t>
+          <t>Как вы оцениваете проведение ремонта оборудования?     [Сроки]</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>125</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="D10" t="n">
-        <v>6.2</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Как вы оцениваете снабжение медицинскими газами и криожидкостями?  [Сроки]</t>
+          <t>Как вы оцениваете снабжение медицинскими газами и криожидкостями?  [Качество]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>112.5</v>
+        <v>125</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Какая в целом ваша оценка работы подразделения?</t>
+          <t>Как вы оцениваете снабжение медицинскими газами и криожидкостями?  [Сроки]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100</v>
+        <v>112.5</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Какая в целом ваша оценка работы подразделения?</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Итоговая оценка для отдела: ИТО</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="n">
-        <v>94.59999999999999</v>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>105.8</v>
       </c>
     </row>
   </sheetData>
